--- a/Snplists/T1D_GRS30/T1D_GRS30_1000G_nopalin_pos_hg19.xlsx
+++ b/Snplists/T1D_GRS30/T1D_GRS30_1000G_nopalin_pos_hg19.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/s_sharp_exeter_ac_uk/Documents/LIVE/hla-prs-toolkit/Snplists/T1D_GRS30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{8C22A28F-1A4C-9443-B3DE-A83A6298F870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D61F183D-5187-D447-8F03-20C8F8916AC8}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{8C22A28F-1A4C-9443-B3DE-A83A6298F870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B6A1C17-E803-C14D-8F31-494A1A629C54}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16500" xr2:uid="{790D5DEB-C308-234D-BB35-18DFB1DC5B15}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27120" xr2:uid="{790D5DEB-C308-234D-BB35-18DFB1DC5B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -152,9 +153,6 @@
     <t>NON-HLA</t>
   </si>
   <si>
-    <t>6:4056277</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -215,9 +213,6 @@
     <t>18:12809340</t>
   </si>
   <si>
-    <t>10:6122009</t>
-  </si>
-  <si>
     <t>1:206939904</t>
   </si>
   <si>
@@ -272,9 +267,6 @@
     <t>HLA-Other</t>
   </si>
   <si>
-    <t>6:91014029</t>
-  </si>
-  <si>
     <t>rs3757247</t>
   </si>
   <si>
@@ -287,7 +279,16 @@
     <t>Y</t>
   </si>
   <si>
+    <t>6:32605884</t>
+  </si>
+  <si>
     <t>6:32671412</t>
+  </si>
+  <si>
+    <t>10:6118770</t>
+  </si>
+  <si>
+    <t>6:90957463</t>
   </si>
 </sst>
 </file>
@@ -645,7 +646,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="N2" sqref="N2:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,6 +660,7 @@
     <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -669,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -690,18 +692,18 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
@@ -710,28 +712,28 @@
         <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -743,31 +745,31 @@
         <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
@@ -776,10 +778,10 @@
         <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1">
         <v>0.43</v>
@@ -788,7 +790,7 @@
         <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -796,13 +798,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>34</v>
@@ -811,10 +813,10 @@
         <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1">
         <v>0.92</v>
@@ -823,7 +825,7 @@
         <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -831,13 +833,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>35</v>
@@ -846,10 +848,10 @@
         <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1">
         <v>2.7</v>
@@ -858,7 +860,7 @@
         <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -872,7 +874,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>37</v>
@@ -881,10 +883,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1">
         <v>0.67</v>
@@ -893,7 +895,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -904,7 +906,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
@@ -916,10 +918,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1">
         <v>0.56000000000000005</v>
@@ -928,7 +930,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -942,7 +944,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>34</v>
@@ -951,10 +953,10 @@
         <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1">
         <v>0.46</v>
@@ -963,7 +965,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -977,7 +979,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
@@ -986,10 +988,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1">
         <v>0.3</v>
@@ -998,7 +1000,7 @@
         <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1012,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
@@ -1021,10 +1023,10 @@
         <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1">
         <v>0.28999999999999998</v>
@@ -1033,7 +1035,7 @@
         <v>34</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1047,7 +1049,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
@@ -1056,10 +1058,10 @@
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1">
         <v>0.26</v>
@@ -1068,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1082,7 +1084,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -1091,10 +1093,10 @@
         <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1">
         <v>0.25</v>
@@ -1103,7 +1105,7 @@
         <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1117,7 +1119,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
@@ -1126,10 +1128,10 @@
         <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1">
         <v>0.21</v>
@@ -1138,7 +1140,7 @@
         <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1152,7 +1154,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -1161,10 +1163,10 @@
         <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1">
         <v>0.2</v>
@@ -1173,7 +1175,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1187,7 +1189,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>35</v>
@@ -1196,10 +1198,10 @@
         <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1">
         <v>0.18</v>
@@ -1208,7 +1210,7 @@
         <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1219,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -1231,10 +1233,10 @@
         <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="1">
         <v>0.17</v>
@@ -1243,7 +1245,7 @@
         <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1257,7 +1259,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
@@ -1266,10 +1268,10 @@
         <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1">
         <v>0.17</v>
@@ -1278,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1292,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>37</v>
@@ -1301,10 +1303,10 @@
         <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="1">
         <v>0.16</v>
@@ -1313,7 +1315,7 @@
         <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1327,7 +1329,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>36</v>
@@ -1336,10 +1338,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="1">
         <v>0.15</v>
@@ -1348,7 +1350,7 @@
         <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1362,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>36</v>
@@ -1371,10 +1373,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="1">
         <v>0.15</v>
@@ -1383,7 +1385,7 @@
         <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1397,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>34</v>
@@ -1406,10 +1408,10 @@
         <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="1">
         <v>0.15</v>
@@ -1418,7 +1420,7 @@
         <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1432,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>34</v>
@@ -1441,10 +1443,10 @@
         <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="1">
         <v>0.15</v>
@@ -1453,7 +1455,7 @@
         <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1467,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>36</v>
@@ -1476,10 +1478,10 @@
         <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" s="1">
         <v>0.15</v>
@@ -1488,7 +1490,7 @@
         <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1502,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>36</v>
@@ -1511,10 +1513,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" s="1">
         <v>0.15</v>
@@ -1523,7 +1525,7 @@
         <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1537,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>35</v>
@@ -1546,10 +1548,10 @@
         <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" s="1">
         <v>0.13</v>
@@ -1558,7 +1560,7 @@
         <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1569,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1581,10 +1583,10 @@
         <v>34</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="1">
         <v>0.12</v>
@@ -1593,7 +1595,7 @@
         <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1607,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>36</v>
@@ -1616,10 +1618,10 @@
         <v>35</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="1">
         <v>0.12</v>
@@ -1628,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1642,7 +1644,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>35</v>
@@ -1651,10 +1653,10 @@
         <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1">
         <v>0.11</v>
@@ -1663,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -1677,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>36</v>
@@ -1686,10 +1688,10 @@
         <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1">
         <v>0.1</v>
@@ -1698,7 +1700,7 @@
         <v>36</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -1712,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>36</v>
@@ -1721,10 +1723,10 @@
         <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1">
         <v>0.1</v>
@@ -1733,7 +1735,7 @@
         <v>34</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
